--- a/config_6.29/fish_boss_yutu_random_2.xlsx
+++ b/config_6.29/fish_boss_yutu_random_2.xlsx
@@ -221,15 +221,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -249,23 +256,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,12 +270,50 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -293,8 +322,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -314,22 +367,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,17 +375,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,22 +385,6 @@
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,13 +403,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -418,79 +425,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,103 +599,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,6 +630,65 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,80 +727,21 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,140 +750,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -886,13 +893,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -900,7 +910,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
@@ -1238,28 +1248,28 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" ht="67.5" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1305,10 +1315,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1354,10 +1364,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1411,10 +1421,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1460,10 +1470,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1503,8 +1513,8 @@
   <sheetPr/>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1699,10 +1709,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="I10" s="4">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:9">
@@ -1724,10 +1734,10 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="I11" s="4">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:9">
@@ -1749,10 +1759,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="I12" s="4">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:9">
@@ -1774,10 +1784,10 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="4">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="I13" s="4">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:9">
@@ -1798,10 +1808,10 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>1623167999</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="5">
         <v>1623254399</v>
       </c>
     </row>
@@ -1824,10 +1834,10 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="4">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="I15" s="4">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
   </sheetData>
@@ -1848,206 +1858,206 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="2" width="13.125" style="9" customWidth="1"/>
-    <col min="3" max="4" width="13.875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="18" style="10" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="9" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="2" width="13.125" style="10" customWidth="1"/>
+    <col min="3" max="4" width="13.875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18" style="11" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="13">
         <v>15</v>
       </c>
-      <c r="D2" s="12">
-        <v>2</v>
-      </c>
-      <c r="E2" s="12">
+      <c r="D2" s="13">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13">
         <v>5</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="10">
+      <c r="F2" s="13"/>
+      <c r="G2" s="11">
         <v>1569886200</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="11">
         <v>1570456800</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <v>16</v>
       </c>
-      <c r="D3" s="9">
-        <v>2</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10">
+      <c r="D3" s="10">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11">
         <v>1569886200</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="11">
         <v>1570456800</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="10">
         <v>17</v>
       </c>
-      <c r="D4" s="9">
-        <v>2</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12">
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13">
         <v>1200</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="13">
         <v>1559186972</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="11">
         <v>2555555555</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C5">
         <v>21</v>
       </c>
-      <c r="D5" s="12">
-        <v>2</v>
-      </c>
-      <c r="E5" s="12">
-        <v>2</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10">
+      <c r="D5" s="13">
+        <v>2</v>
+      </c>
+      <c r="E5" s="13">
+        <v>2</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="11">
         <v>1569886200</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="11">
         <v>2555555555</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C6">
         <v>22</v>
       </c>
-      <c r="D6" s="12">
-        <v>2</v>
-      </c>
-      <c r="E6" s="12">
-        <v>2</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="D6" s="13">
+        <v>2</v>
+      </c>
+      <c r="E6" s="13">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11">
         <v>1569886200</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="11">
         <v>2555555555</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C7">
         <v>23</v>
       </c>
-      <c r="D7" s="12">
-        <v>2</v>
-      </c>
-      <c r="E7" s="12">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="D7" s="13">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11">
         <v>1569886200</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="11">
         <v>2555555555</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="9">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C8">
         <v>24</v>
       </c>
-      <c r="D8" s="12">
-        <v>2</v>
-      </c>
-      <c r="E8" s="12">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="D8" s="13">
+        <v>2</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11">
         <v>1569886200</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="11">
         <v>2555555555</v>
       </c>
     </row>
@@ -2069,14 +2079,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="27" spans="1:3">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="6" customFormat="1" ht="27" spans="1:3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2108,17 +2118,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="6" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2252,112 +2262,112 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="6"/>
-    <col min="2" max="2" width="21.25" style="6" customWidth="1"/>
-    <col min="3" max="4" width="17.875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="10.75" style="6"/>
+    <col min="1" max="1" width="10.75" style="7"/>
+    <col min="2" max="2" width="21.25" style="7" customWidth="1"/>
+    <col min="3" max="4" width="17.875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="10.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="30.95" customHeight="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="6" customFormat="1" ht="30.95" customHeight="1" spans="1:5">
+      <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" ht="17.1" customHeight="1" spans="1:5">
-      <c r="A4" s="6">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="6">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2371,37 +2381,37 @@
       <c r="B9"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="8"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="8"/>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="8"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="8"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="8"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="8"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="8"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="8"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="8"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="8"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="8"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" spans="2:2">
       <c r="B21"/>
@@ -2472,17 +2482,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="6" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2630,62 +2640,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="10.75" style="6"/>
+    <col min="1" max="16384" width="10.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="6" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
         <v>99999</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>99999</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
         <v>99999</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>99999</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="6">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>99999</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>99999</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>3</v>
       </c>
     </row>
@@ -2707,10 +2717,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2772,10 +2782,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>44</v>
       </c>
     </row>
